--- a/DjLenna/evidence.xlsx
+++ b/DjLenna/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="1" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>98295FA7856DD91C175D37E25553960E8056431BC4826800A45FFDD30E8860EE</t>
+  </si>
+  <si>
+    <t>570B705D160750584DA835994DDF571EAD3AE0C4097ECB9EEDF5580D8D368DF1</t>
+  </si>
+  <si>
+    <t>71F818C97DC51D996A7E05BD94386D13CED1D151AF8ED9548A71DDD5A5B057B0</t>
+  </si>
+  <si>
+    <t>A92CB99055EC53E39B31BE2BA5FFFD5C195139215545ED331C4AA654B15AC99E</t>
+  </si>
+  <si>
+    <t>F6C8D6571A01384D3D0A012108AB05D589B394D546CAA5CE557B4F25F3D5815A</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3595,7 +3607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3614,7 +3628,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3623,7 +3637,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3693,7 +3707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3712,7 +3728,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3721,7 +3737,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>

--- a/DjLenna/evidence.xlsx
+++ b/DjLenna/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="1" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="3" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="B2" sheetId="24" r:id="rId24"/>
     <sheet name="B5" sheetId="25" r:id="rId25"/>
     <sheet name="B6" sheetId="26" r:id="rId26"/>
+    <sheet name="B7" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -104,18 +105,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -140,15 +135,6 @@
     <t>A13</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>A14</t>
   </si>
   <si>
@@ -173,12 +159,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -189,11 +169,11 @@
   </si>
   <si>
     <t>elgafar-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>uptick_7000-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>997D37521AA1C724B2069CA58512117D5C274EB14244FD01C8A39694E525D40C</t>
@@ -223,36 +203,12 @@
     <t>DjLenna</t>
   </si>
   <si>
-    <t>8B12D95F4761FBA28C54A6D9D03EF5444B7802D4B8BF24D8DD7816A067B294C8</t>
-  </si>
-  <si>
-    <t>nft1</t>
-  </si>
-  <si>
-    <t>nft2</t>
-  </si>
-  <si>
-    <t>310EAFD3FB6492F7791E0AF0443E8F5A4B7B01242A433C29491161D59EC6D875</t>
-  </si>
-  <si>
-    <t>632383311C413158A1412E23BE4220AC28CBA038AFB071276307756028597231</t>
-  </si>
-  <si>
     <t>stars1qgp5m2e983lun9cm0m47vwaf3t8pz0macrgnuya5xr05w8x58udqakqk8k</t>
   </si>
   <si>
     <t>ibc/6D168784B034DFEF5CD1DDDDEB0085A6962F923CF16C85733AF734B32AB9E519</t>
   </si>
   <si>
-    <t>D3E93776580840463C7B60C42158D9E74D31E9DF0FCA0622D8BE0F8A0B150BC6</t>
-  </si>
-  <si>
-    <t>0F07618610C9003839CD2CA2ED5B7825B4C9042B9904A6098ED0FC6F2F5D339A</t>
-  </si>
-  <si>
-    <t>98295FA7856DD91C175D37E25553960E8056431BC4826800A45FFDD30E8860EE</t>
-  </si>
-  <si>
     <t>570B705D160750584DA835994DDF571EAD3AE0C4097ECB9EEDF5580D8D368DF1</t>
   </si>
   <si>
@@ -263,17 +219,226 @@
   </si>
   <si>
     <t>F6C8D6571A01384D3D0A012108AB05D589B394D546CAA5CE557B4F25F3D5815A</t>
+  </si>
+  <si>
+    <t>ibc/C3B6482135023283EF8126CFBE0F7EDC70443BA06A59512E214C7A1D16D1DA43</t>
+  </si>
+  <si>
+    <t>nftrA7</t>
+  </si>
+  <si>
+    <t>nftrA8</t>
+  </si>
+  <si>
+    <t>nftrA9</t>
+  </si>
+  <si>
+    <t>nftrA10</t>
+  </si>
+  <si>
+    <t>nftrA11</t>
+  </si>
+  <si>
+    <t>nftrA12</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>ibc/AB8355D14BAAFD952BF870DD0C12E1D2464EBF7531AE5D50F19290ACA609881B</t>
+  </si>
+  <si>
+    <t>ibc/2E9FFB840C25C2F86DF1B636310229A57130E65DDCDB91CBF9D8059366FE2053</t>
+  </si>
+  <si>
+    <t>ibc/547992E422B02B3C5C10D958E6589DDBBC16381F5661522E2F317D904A5542C5</t>
+  </si>
+  <si>
+    <t>ibc/465BF712B55F328E6396BC9450F12186F8BE507ABEB761BE874C7E8407D1DE22</t>
+  </si>
+  <si>
+    <t>ibc/1DF0B656D2F99240FBE08B3736F27B0AB29F362E13A2614E0D09BDF61AB1DBB2</t>
+  </si>
+  <si>
+    <t>B7C3CBE361ED2CD04CC3B06F081CC6ECCE9D118D7A25575D30990A1550614C2A</t>
+  </si>
+  <si>
+    <t>9D99C19A83D211F473CE1D4A3E749CC252EE618A98E215BA933614960ADE8BF9</t>
+  </si>
+  <si>
+    <t>2D685331D0E521AB99CCFCB46E7DC99F580AC5833BD027A5D595B68E0E9268F1</t>
+  </si>
+  <si>
+    <t>E22BAAC9F4E8CF216121A69AEEF0E23803C12A6DD9A96A8A8435EEC834E97380</t>
+  </si>
+  <si>
+    <t>CACEAB01B68CE314AFFE7195C98A2595649EFAC5F1EDC94076A0FA38DBA9C855</t>
+  </si>
+  <si>
+    <t>8E357C1F7F6C8C9615E1F047CFC9DBF7D673DB11CBDA52F6781936120A909855</t>
+  </si>
+  <si>
+    <t>713BACFFACAE52EB428DCED3F0AA33431BF4BF193EB1E77D90798DAAB4372903</t>
+  </si>
+  <si>
+    <t>BFE3EFD881EF08C8B20D6F94C88298FA075679956ED298AEBCAF381208FB4FFF</t>
+  </si>
+  <si>
+    <t>FECDCFA30396D1406AF6BFC97656816AA0F573034327ECE58AAD30980BBC8F40</t>
+  </si>
+  <si>
+    <t>9D54D98DD2F63381132F36A51E924E1BA174701A98879031A3F196B214110BBA</t>
+  </si>
+  <si>
+    <t>A19F369A1AB8B656DD767068F21EB0E143EB328AE7A08EA8938F234D811AA00A</t>
+  </si>
+  <si>
+    <t>7B619C425A6F7E3E3D33F477937A8A4BA95BB9F8E43C66D0E1C9108075A415B8</t>
+  </si>
+  <si>
+    <t>96848D1B743A0B349EA586637F79B8142F0289CFDA4B9034CCF1F824D2E80785</t>
+  </si>
+  <si>
+    <t>2DE43090F7A315B96E6668E43EF0B1B676B88B86237139F9C036CFA1C8963236</t>
+  </si>
+  <si>
+    <t>6369565684094643BED7D9B3D495F5BFAD462F6B572FCA8028CA6EE18B831F70</t>
+  </si>
+  <si>
+    <t>22E73D89588EF016EC03B1D097E386E34E20E0ECC9382DA87FBB3722F6EDAA3D</t>
+  </si>
+  <si>
+    <t>5F6F2A037B427AC12F4E95CB5E8B20E1DBC1D41C1853C5C4CDC9EA861E94822E</t>
+  </si>
+  <si>
+    <t>D68F9A3FC95CED03BEB59F079AD2CD7C261BABA05D5E1A11E0EF1EDCA4127688</t>
+  </si>
+  <si>
+    <t>F03563E8F3E902C9970563106C9955C24788F2374AC8AECA6CA42B767F00395B</t>
+  </si>
+  <si>
+    <t>32C612EF20E1647BECDF5D6816AC6E39F7F3533BF10F4AC7D3FA90E32C9C439C</t>
+  </si>
+  <si>
+    <t>93266D3DEB50D5249696F6169AA645D0420E1B8303A80AA156E22FA8BFBE705D</t>
+  </si>
+  <si>
+    <t>8D9ECD0A541E53A44A1E8499D314F102387E7E8506B89628CAFA1DB260616A0F</t>
+  </si>
+  <si>
+    <t>3B13E38A6D508BE68DA8EE635DC37B4192107C8E75C47964EB717B6220FCF14B</t>
+  </si>
+  <si>
+    <t>60EEE4BD98590CCBC77577A763D21B79339748E7B6C7C9BE46A6F987C5358A5D</t>
+  </si>
+  <si>
+    <t>3D7CE75533AB448B087366F52C6E580610331E84BABA6D1B34D209D8DFB5ABF7</t>
+  </si>
+  <si>
+    <t>0DFB839D4ADAD3510C4E327BBD12D7688D8D7C759E54C2C352E76FD746D994EA</t>
+  </si>
+  <si>
+    <t>06D0953A1695719F8F9E79D03C84BE72A85275983C0C613E73172DE2CC37DD53</t>
+  </si>
+  <si>
+    <t>F494EA1C57A43937496956BF713F6942899CAB7395F5729910423BA447766A75</t>
+  </si>
+  <si>
+    <t>54B331CFD9741FBB63C1439A07C5ABCD086A119A64D0768F1451C90723F6B5C4</t>
+  </si>
+  <si>
+    <t>3BFB195A192701454F0380AA88042872FAB4F96A9950712BB8EC6D76BEDCE974</t>
+  </si>
+  <si>
+    <t>8F72F0398FD4E5E9693475BE184DC0461D773AE705FE16E2AD986B5B48A55DAF</t>
+  </si>
+  <si>
+    <t>E7F4FF0E2AB86723C38C530C1C2138A65414ECD70217D74821A18A003498CD40</t>
+  </si>
+  <si>
+    <t>AE6F328BD24616BA60E22F249904E4F0074473EA69EC0CDF63C276BE049B825C</t>
+  </si>
+  <si>
+    <t>0E149FB97F02ADC463641E8DCC4A69AC794BB6F203E413BAF1F5ABA8DE3AB652</t>
+  </si>
+  <si>
+    <t>3BE72ED8A971B41B2FF695BA3B8DB21FBBA7A7A24F02FF758E54AF090109A8A8</t>
+  </si>
+  <si>
+    <t>B8B6B30B47AC70BF5383519320A58E6AC79516A713AABDC10EE4FC6B6D3AD612</t>
+  </si>
+  <si>
+    <t>02A63A576AE1933A8F576B5896415CD19D3554F81DD3CCD72CF5E02CA15CEC2E</t>
+  </si>
+  <si>
+    <t>9E47E4F1DD093792832537F22521099BB5A1D706A4BD9454C2445711EBCEA535</t>
+  </si>
+  <si>
+    <t>AFECD292EC53F07C8FF0A4144C716E7C2B7DB60279911392359FB620E2D5AF45</t>
+  </si>
+  <si>
+    <t>9D022DD62EC9EE1D30D0217374C34D0D4F782F6CAE0214776CB9CC6F591249A7</t>
+  </si>
+  <si>
+    <t>082E7CA0CF664D87FEE728AA4E8595DA5FB48C85E09D514EECB1EDA2BAF5FCD5</t>
+  </si>
+  <si>
+    <t>69F74B280EB4CBDC121EE7C1BA455544EC9D2F1722DD546DC1ADA1C4A2716437</t>
+  </si>
+  <si>
+    <t>F55ED29FD8055734144067F5B0839E32C2CC67DA9B240321E92DB1A4099DDA99</t>
+  </si>
+  <si>
+    <t>2D1FAB597C60CC3AAF9763886B81F5330F64784B53DCA2F67BEF16E2831F5A2F</t>
+  </si>
+  <si>
+    <t>nftA1</t>
+  </si>
+  <si>
+    <t>nftA2</t>
+  </si>
+  <si>
+    <t>24A2F33B635C5D317B287C964890E3054C2B541D8F2D3603A9A905BE8F3A312F</t>
+  </si>
+  <si>
+    <t>A1A991B979196BACA8F3F29C4510ED2B3E6FC8A9BC1144FDCDD50D3FC11EA89D</t>
+  </si>
+  <si>
+    <t>08B4E3016696863AC95453E2C20E2A28FB9F83BE74725B0744A1A760E7E5D226</t>
+  </si>
+  <si>
+    <t>FF23044E7B2D5BC923219D1D1C668C7E8070D0B1F94294B5ABAC66FB8C6F02B0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -321,6 +486,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -434,30 +619,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -469,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -481,19 +669,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1652,20 +1853,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="7" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,14 +1877,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1692,14 +1893,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -1708,14 +1909,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -1724,14 +1925,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -1740,340 +1941,340 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15">
+      <c r="B19" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15">
+      <c r="B21" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15">
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15">
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15">
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15">
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15">
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15">
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15">
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15">
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15">
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15">
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15">
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15">
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15">
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15">
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2115,16 +2316,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="14" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="14" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2135,67 +2338,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2215,16 +2418,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="15" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="15" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2235,67 +2440,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2315,16 +2520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="16" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="16" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2335,67 +2542,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2415,16 +2622,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="17" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2435,67 +2644,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2515,16 +2724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="18" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2535,67 +2746,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2615,16 +2826,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="19" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2635,71 +2848,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2719,16 +2940,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="21" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="21" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2739,71 +2962,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2823,16 +3054,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="22" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="22" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2843,71 +3076,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>84</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2927,16 +3168,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="23" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="23" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2947,71 +3190,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3031,16 +3282,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="24" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="24" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3051,71 +3304,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3139,7 +3400,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" style="5" customWidth="1"/>
@@ -3152,7 +3413,7 @@
     <col min="10" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -3178,31 +3439,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3212,7 +3473,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3222,7 +3483,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3232,7 +3493,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3242,7 +3503,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3252,7 +3513,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3262,7 +3523,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3272,7 +3533,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3295,16 +3556,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="25" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="25" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3315,71 +3578,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>96</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3399,16 +3670,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="26" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="26" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3419,71 +3692,87 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3503,16 +3792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="27" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="27" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3523,71 +3814,87 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3611,13 +3918,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3626,67 +3933,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3707,17 +4014,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="29" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3726,67 +4033,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3807,15 +4114,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="30" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3824,67 +4133,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3905,15 +4214,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="31" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3922,67 +4233,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3996,6 +4307,101 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFB6</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="11.44140625" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4007,14 +4413,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="35" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="35" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4025,60 +4431,60 @@
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4099,10 +4505,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="35" customWidth="1"/>
     <col min="3" max="3" width="16" style="35" customWidth="1"/>
@@ -4110,7 +4516,7 @@
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4123,68 +4529,68 @@
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4208,7 +4614,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="35" customWidth="1"/>
     <col min="3" max="3" width="16" style="35" customWidth="1"/>
@@ -4216,7 +4622,7 @@
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4231,64 +4637,64 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4309,10 +4715,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="35" customWidth="1"/>
     <col min="3" max="3" width="16" style="35" customWidth="1"/>
@@ -4320,7 +4726,7 @@
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4335,64 +4741,64 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4416,7 +4822,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="35" customWidth="1"/>
     <col min="3" max="3" width="16" style="35" customWidth="1"/>
@@ -4424,7 +4830,7 @@
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4439,64 +4845,64 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4520,7 +4926,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="16" style="35" customWidth="1"/>
@@ -4530,7 +4936,7 @@
     <col min="7" max="16384" width="12.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4545,64 +4951,64 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4622,16 +5028,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="13" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="13" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -4642,67 +5050,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
